--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2540570.153691641</v>
+        <v>-2543491.398675893</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.79223673232705</v>
+        <v>13.79223673232706</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386758</v>
+        <v>27.94848709386832</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150083</v>
+        <v>14.02109506150165</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.21140045680316</v>
+        <v>32.21140045679771</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>23.38964480609433</v>
       </c>
       <c r="F6" t="n">
-        <v>23.38964480609573</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>34.88448735196222</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.88448735196222</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653512591</v>
+        <v>7.336611653513074</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.71120930970042</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E8" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="F8" t="n">
-        <v>92.66494928910228</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.46317442462584</v>
@@ -1181,7 +1181,7 @@
         <v>92.66494928910228</v>
       </c>
       <c r="S8" t="n">
-        <v>19.58725505141185</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75.37201941954118</v>
+      </c>
+      <c r="E9" t="n">
         <v>92.66494928910228</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.5694784127797</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>33.42924826805087</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>209.6931219609846</v>
       </c>
       <c r="I11" t="n">
-        <v>8.321011545075084</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.1644063769637</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.9303487751657</v>
+        <v>43.88318321982633</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>165.7424757982025</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>81.97599399093703</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>36.19987758764968</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442971</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295086</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642294905</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2245,7 +2245,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2570,7 +2570,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2716,10 +2716,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2776,10 +2776,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2953,10 +2953,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3013,10 +3013,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3083,7 +3083,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I33" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T33" t="n">
         <v>189.0833237787849</v>
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T36" t="n">
         <v>189.0833237787849</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3512,7 +3512,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894981</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
         <v>378.5542040247498</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3560,7 +3560,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,7 +3715,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651978</v>
       </c>
       <c r="X41" t="n">
         <v>338.1208983262551</v>
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T42" t="n">
         <v>189.0833237787849</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247503</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="C5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="D5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="E5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="F5" t="n">
-        <v>44.95310628734348</v>
+        <v>44.95310628734416</v>
       </c>
       <c r="G5" t="n">
-        <v>31.02155403246767</v>
+        <v>31.02155403246833</v>
       </c>
       <c r="H5" t="n">
-        <v>31.02155403246767</v>
+        <v>31.02155403246833</v>
       </c>
       <c r="I5" t="n">
-        <v>31.02155403246767</v>
+        <v>31.02155403246833</v>
       </c>
       <c r="J5" t="n">
-        <v>31.02155403246767</v>
+        <v>31.02155403246833</v>
       </c>
       <c r="K5" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928013142</v>
+        <v>5.366676928012159</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645574</v>
+        <v>39.90231940645374</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188489833</v>
+        <v>74.43796188489532</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745907623</v>
+        <v>98.59809745907225</v>
       </c>
       <c r="P5" t="n">
-        <v>84.43537517473196</v>
+        <v>84.43537517472714</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="R5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="S5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="T5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="U5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="V5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="W5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="X5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.89860703654695</v>
+        <v>51.89860703654763</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="C6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="D6" t="n">
-        <v>104.3010934967759</v>
+        <v>69.06423758570094</v>
       </c>
       <c r="E6" t="n">
-        <v>104.3010934967759</v>
+        <v>45.43833374116121</v>
       </c>
       <c r="F6" t="n">
-        <v>80.67518965223479</v>
+        <v>45.43833374116121</v>
       </c>
       <c r="G6" t="n">
-        <v>45.43833374116184</v>
+        <v>45.43833374116121</v>
       </c>
       <c r="H6" t="n">
-        <v>10.20147783008889</v>
+        <v>45.43833374116121</v>
       </c>
       <c r="I6" t="n">
-        <v>10.20147783008889</v>
+        <v>45.43833374116121</v>
       </c>
       <c r="J6" t="n">
-        <v>10.20147783008889</v>
+        <v>10.20147783008929</v>
       </c>
       <c r="K6" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146659958</v>
+        <v>37.32640146659848</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394504217</v>
+        <v>50.31593027978045</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275822453</v>
+        <v>84.85157275822203</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366671</v>
+        <v>119.3872152366636</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078489</v>
+        <v>139.5379494078448</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="R6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="S6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="T6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="V6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="W6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="X6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
       <c r="Y6" t="n">
-        <v>104.3010934967759</v>
+        <v>104.3010934967729</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="C7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="D7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="E7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="F7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="G7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="H7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="I7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="J7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="K7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="L7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="M7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="N7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="O7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="P7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="R7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="S7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="T7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="U7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="V7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="W7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="X7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.790758988156978</v>
+        <v>2.790758988156895</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.3812360203108</v>
+        <v>240.3267367695142</v>
       </c>
       <c r="C8" t="n">
-        <v>233.3812360203108</v>
+        <v>240.3267367695142</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3812360203108</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="E8" t="n">
-        <v>139.7802771424297</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="F8" t="n">
         <v>46.17931826454857</v>
@@ -4805,13 +4805,13 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821455</v>
+        <v>21.18357364821463</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940376</v>
+        <v>75.16870670940386</v>
       </c>
       <c r="M8" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4829,25 +4829,25 @@
         <v>253.166342132848</v>
       </c>
       <c r="S8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
       <c r="T8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
       <c r="U8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
       <c r="V8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
       <c r="W8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
       <c r="X8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.3812360203108</v>
+        <v>253.166342132848</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.60238814026729</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="C9" t="n">
-        <v>41.60238814026729</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="D9" t="n">
-        <v>41.60238814026729</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="E9" t="n">
-        <v>41.60238814026729</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="F9" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G9" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H9" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128183</v>
@@ -4890,7 +4890,7 @@
         <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560415</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N9" t="n">
         <v>226.5580308522527</v>
@@ -4905,28 +4905,28 @@
         <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1721822163862</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1721822163862</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1721822163862</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1721822163862</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="V9" t="n">
-        <v>322.4052647739106</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="W9" t="n">
-        <v>228.8043058960295</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8043058960295</v>
+        <v>270.7484666479219</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.2033470181484</v>
+        <v>270.7484666479219</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1896.503151925173</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C11" t="n">
-        <v>1527.540634984761</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D11" t="n">
-        <v>1169.274936378011</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="E11" t="n">
-        <v>783.4866837797663</v>
+        <v>1104.381705680819</v>
       </c>
       <c r="F11" t="n">
-        <v>372.5007789901587</v>
+        <v>693.3958008912118</v>
       </c>
       <c r="G11" t="n">
-        <v>372.5007789901587</v>
+        <v>278.3233507362083</v>
       </c>
       <c r="H11" t="n">
-        <v>74.91717859892594</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
@@ -5078,13 +5078,13 @@
         <v>3009.337405520489</v>
       </c>
       <c r="W11" t="n">
-        <v>2656.568750250374</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X11" t="n">
-        <v>2283.102991989294</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y11" t="n">
-        <v>2283.102991989294</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>1914.559152968996</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1545.596636028584</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1187.330937421834</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="F14" t="n">
         <v>801.5426848235895</v>
@@ -5273,19 +5273,19 @@
         <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
         <v>2681.771598889755</v>
@@ -5294,34 +5294,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4204.694001059017</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632629</v>
+        <v>4002.064905092566</v>
       </c>
       <c r="U14" t="n">
-        <v>3953.532414632629</v>
+        <v>3748.595625883695</v>
       </c>
       <c r="V14" t="n">
-        <v>3622.469527289058</v>
+        <v>3417.532738540124</v>
       </c>
       <c r="W14" t="n">
-        <v>3269.700872018944</v>
+        <v>3064.764083270009</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2691.29832500893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2301.158993033118</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1087.697503179733</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1662.137679823382</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O15" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>335.1441411914589</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="C16" t="n">
-        <v>252.340106857179</v>
+        <v>796.6385531353387</v>
       </c>
       <c r="D16" t="n">
-        <v>252.340106857179</v>
+        <v>646.521913723003</v>
       </c>
       <c r="E16" t="n">
-        <v>252.340106857179</v>
+        <v>498.6088201406099</v>
       </c>
       <c r="F16" t="n">
-        <v>252.340106857179</v>
+        <v>351.7188726426995</v>
       </c>
       <c r="G16" t="n">
-        <v>84.98040897511625</v>
+        <v>315.1533397258816</v>
       </c>
       <c r="H16" t="n">
-        <v>84.98040897511625</v>
+        <v>171.9869683152617</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869776</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042033</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5467,19 +5467,19 @@
         <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306094</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100207</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632461</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652287</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060216986</v>
+        <v>965.5747360632456</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
@@ -5522,22 +5522,22 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
         <v>4188.091007924548</v>
@@ -5589,28 +5589,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>326.515925275411</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>875.4343898857001</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,52 +5647,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352543</v>
@@ -5701,19 +5701,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5738,43 +5738,43 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924548</v>
@@ -5823,31 +5823,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315385</v>
@@ -5905,16 +5905,16 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,7 +5929,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
         <v>2487.049233352543</v>
@@ -5938,10 +5938,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5950,7 +5950,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5972,28 +5972,28 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746738</v>
@@ -6002,7 +6002,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
         <v>3813.656640612703</v>
@@ -6060,7 +6060,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511622</v>
@@ -6069,10 +6069,10 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
         <v>1522.315654538067</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,28 +6145,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042793</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.528702044362</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902795</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6175,10 +6175,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6209,34 +6209,34 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511689</v>
+        <v>84.98040897511683</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951456</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6245,16 +6245,16 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6300,31 +6300,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C28" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
         <v>2487.049233352543</v>
@@ -6418,10 +6418,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
@@ -6440,40 +6440,40 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511774</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076851</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,31 +6482,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H31" t="n">
         <v>140.057470989793</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042788</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
         <v>2392.455631028688</v>
@@ -6643,16 +6643,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357083</v>
@@ -6661,7 +6661,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.174278704278</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,10 +6871,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6886,13 +6886,13 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
         <v>1407.504522645591</v>
@@ -6917,37 +6917,37 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E35" t="n">
         <v>1104.234664943807</v>
       </c>
       <c r="F35" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511683</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K35" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -6956,19 +6956,19 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
@@ -7011,16 +7011,16 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
         <v>1522.315654538067</v>
@@ -7072,61 +7072,61 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L37" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7154,10 +7154,10 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
         <v>725.1782574796675</v>
@@ -7166,16 +7166,16 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7187,37 +7187,37 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1968.593900456</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2474.99885540425</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
         <v>2555.644190323788</v>
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443616</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7372,7 +7372,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7391,70 +7391,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042785</v>
@@ -7573,7 +7573,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7597,10 +7597,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357083</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7628,70 +7628,70 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749449</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7834,22 +7834,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272273</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>106.7437663446525</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775269</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272423</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
@@ -9802,7 +9802,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>178.509660909445</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
         <v>171.8177168444618</v>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094463</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10048,7 +10048,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140413</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10762,7 +10762,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775083</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446523</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.99090544362082</v>
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22586,7 +22586,7 @@
         <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>172.4913922710409</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2407063421153</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>236.8603801775214</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22650,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.91464242633586</v>
       </c>
       <c r="I11" t="n">
-        <v>33.25591822785087</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>48.0471655553394</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>203.9886248802665</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27082710769081</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>129.4862233155924</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.756905814749189e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1314250.504727694</v>
+        <v>1314250.504727695</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1318102.064477524</v>
+        <v>1318102.064477523</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1410409.663929578</v>
+        <v>1410409.663929577</v>
       </c>
     </row>
     <row r="9">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38654.42660963805</v>
+        <v>38654.42660963806</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>34099.70989709206</v>
+        <v>34099.70989709205</v>
       </c>
       <c r="F2" t="n">
         <v>38337.15909756551</v>
@@ -26329,31 +26329,31 @@
         <v>41052.08849321415</v>
       </c>
       <c r="H2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321423</v>
+        <v>41052.08849321422</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="L2" t="n">
-        <v>41052.08849321415</v>
-      </c>
       <c r="M2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321415</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263731</v>
+        <v>56271.05156263569</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945526</v>
+        <v>88049.4697294568</v>
       </c>
       <c r="E3" t="n">
         <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.109696308</v>
+        <v>215052.1096963078</v>
       </c>
       <c r="G3" t="n">
         <v>25288.16188177116</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799754</v>
+        <v>8978.150740799607</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390389</v>
+        <v>39911.87677390398</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694316</v>
+        <v>184096.0922694317</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578632</v>
+        <v>56542.29359578626</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.4677251939</v>
+        <v>330698.4677251941</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663267</v>
+        <v>340674.6247663272</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
@@ -26430,7 +26430,7 @@
         <v>15379.37371890076</v>
       </c>
       <c r="G4" t="n">
-        <v>46449.2588011208</v>
+        <v>46449.25880112081</v>
       </c>
       <c r="H4" t="n">
         <v>46449.2588011208</v>
@@ -26439,25 +26439,25 @@
         <v>46449.2588011208</v>
       </c>
       <c r="J4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.2588011208</v>
       </c>
       <c r="K4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.25880112086</v>
       </c>
       <c r="L4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.25880112088</v>
       </c>
       <c r="M4" t="n">
+        <v>46449.25880112081</v>
+      </c>
+      <c r="N4" t="n">
+        <v>46449.25880112083</v>
+      </c>
+      <c r="O4" t="n">
+        <v>46449.25880112084</v>
+      </c>
+      <c r="P4" t="n">
         <v>46449.25880112078</v>
-      </c>
-      <c r="N4" t="n">
-        <v>46449.25880112077</v>
-      </c>
-      <c r="O4" t="n">
-        <v>46449.25880112079</v>
-      </c>
-      <c r="P4" t="n">
-        <v>46449.25880112075</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097138</v>
+        <v>43939.64495097128</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,37 +26479,37 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060702</v>
+        <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="J5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="L5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.4341021553</v>
-      </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647229.8649159597</v>
+        <v>-647349.7480101386</v>
       </c>
       <c r="C6" t="n">
-        <v>-399833.2327867212</v>
+        <v>-399833.23278672</v>
       </c>
       <c r="D6" t="n">
-        <v>-408721.762453892</v>
+        <v>-408721.7624538936</v>
       </c>
       <c r="E6" t="n">
-        <v>-783936.6302914383</v>
+        <v>-784284.2492212444</v>
       </c>
       <c r="F6" t="n">
-        <v>-284543.3203182503</v>
+        <v>-284679.0667880325</v>
       </c>
       <c r="G6" t="n">
         <v>-125791.7662918331</v>
       </c>
       <c r="H6" t="n">
-        <v>-100503.6044100619</v>
+        <v>-100503.6044100617</v>
       </c>
       <c r="I6" t="n">
-        <v>-100503.6044100619</v>
+        <v>-100503.604410062</v>
       </c>
       <c r="J6" t="n">
         <v>-100503.6044100618</v>
@@ -26549,16 +26549,16 @@
         <v>-109481.7551508616</v>
       </c>
       <c r="L6" t="n">
-        <v>-140415.4811839658</v>
+        <v>-140415.481183966</v>
       </c>
       <c r="M6" t="n">
-        <v>-284599.6966794934</v>
+        <v>-284599.6966794936</v>
       </c>
       <c r="N6" t="n">
         <v>-157045.8980058482</v>
       </c>
       <c r="O6" t="n">
-        <v>-100503.6044100619</v>
+        <v>-100503.604410062</v>
       </c>
       <c r="P6" t="n">
         <v>-100503.6044100619</v>
@@ -26701,31 +26701,31 @@
         <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221393</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>31.61020235221395</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.6102023522139</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="O2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234896</v>
+        <v>375.7370697234882</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
@@ -26805,7 +26805,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26817,7 +26817,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432537</v>
+        <v>49.41884193432395</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067594</v>
+        <v>81.85424904067736</v>
       </c>
       <c r="E3" t="n">
         <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268247</v>
+        <v>188.3831700268245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193714007</v>
+        <v>57.78046193714111</v>
       </c>
       <c r="E4" t="n">
         <v>738.7365061131906</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196199</v>
+        <v>34.88448735196142</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714007</v>
+        <v>57.78046193714044</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131907</v>
+        <v>738.736506113191</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714007</v>
+        <v>57.78046193714111</v>
       </c>
       <c r="M4" t="n">
         <v>738.7365061131906</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866602</v>
+        <v>230.8536567866599</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27406,7 +27406,7 @@
         <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,7 +27418,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
         <v>80.64258426171736</v>
@@ -27427,13 +27427,13 @@
         <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1266962566148</v>
+        <v>6.635303985573927</v>
       </c>
       <c r="T2" t="n">
         <v>217.3533046710778</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>132.8707205009476</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27482,7 +27482,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>324.0053859738347</v>
+        <v>324.0053859738348</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412005</v>
+        <v>152.2423081412007</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183591</v>
+        <v>52.84403871183639</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>26.97719800818909</v>
+        <v>26.97719800819514</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160692</v>
+        <v>120.7015430160695</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980081</v>
+        <v>174.5995329980082</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4836323873893</v>
+        <v>216.4836323873894</v>
       </c>
       <c r="U5" t="n">
         <v>251.2248128452119</v>
@@ -27698,25 +27698,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5605782126776</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>134.2554356493066</v>
       </c>
       <c r="F6" t="n">
-        <v>121.6795675872881</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>101.6508406424092</v>
+        <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>69.5455509644293</v>
+        <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>71.69656870443967</v>
+        <v>71.69656870443978</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804697</v>
+        <v>15.59698630608607</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,13 +27737,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.932648269602282</v>
+        <v>1.932648269603703</v>
       </c>
       <c r="R6" t="n">
-        <v>95.500881709193</v>
+        <v>95.50088170919318</v>
       </c>
       <c r="S6" t="n">
-        <v>156.6714117615833</v>
+        <v>156.6714117615834</v>
       </c>
       <c r="T6" t="n">
         <v>196.9071591941057</v>
@@ -27795,31 +27795,31 @@
         <v>135.0744384248763</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169811</v>
+        <v>79.09202486169829</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141742</v>
+        <v>50.29326225141772</v>
       </c>
       <c r="L7" t="n">
-        <v>34.1501838507801</v>
+        <v>34.15018385078046</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773406</v>
+        <v>32.71538569773446</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383147</v>
+        <v>24.00059209383187</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304100969</v>
+        <v>42.68670304101006</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486395</v>
+        <v>55.78036510486426</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119891</v>
+        <v>94.76870410119912</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090977</v>
+        <v>146.8278906090978</v>
       </c>
       <c r="S7" t="n">
         <v>212.2085986491046</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>370.0226323537802</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315806</v>
       </c>
       <c r="E8" t="n">
         <v>289.2654207831595</v>
       </c>
       <c r="F8" t="n">
-        <v>314.2110964526091</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>7.366133540830774</v>
       </c>
       <c r="S8" t="n">
-        <v>147.5137706098549</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
         <v>215.0431621354273</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.86823436076506</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>72.07304614509758</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629866</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>52.4042631042816</v>
       </c>
       <c r="G9" t="n">
         <v>136.3592641379443</v>
@@ -27953,7 +27953,7 @@
         <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>153.4011028494393</v>
@@ -27989,16 +27989,16 @@
         <v>225.8766285924705</v>
       </c>
       <c r="V9" t="n">
-        <v>199.3713388813744</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>159.0300338718173</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.0177464882021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28582,7 +28582,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605694</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221338</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807997</v>
+        <v>1.510500782807992</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193241</v>
+        <v>15.46941614193235</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920538</v>
+        <v>58.23358142920516</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148504</v>
+        <v>128.2018658148499</v>
       </c>
       <c r="K5" t="n">
-        <v>192.141363951113</v>
+        <v>192.1413639511122</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829733</v>
+        <v>238.3683522829724</v>
       </c>
       <c r="M5" t="n">
-        <v>265.230720579235</v>
+        <v>265.2307205792339</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485531</v>
+        <v>264.2975509485521</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693412</v>
+        <v>254.5023887693402</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937687</v>
+        <v>217.2119006937679</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094572</v>
+        <v>163.1170914094566</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806296</v>
+        <v>94.88399479806259</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823728</v>
+        <v>34.42053658823715</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176742012</v>
+        <v>6.612217176741987</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246398</v>
+        <v>0.1208400626246393</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688392041</v>
+        <v>0.8081891688392011</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104946</v>
+        <v>7.805405920104917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556032</v>
+        <v>27.82581129556022</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861973</v>
+        <v>76.35615300861944</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208464</v>
+        <v>130.5048273208459</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318364</v>
+        <v>173.4388671318354</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739805</v>
+        <v>155.2547700969496</v>
       </c>
       <c r="N6" t="n">
-        <v>144.462448258265</v>
+        <v>166.2261994352945</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964066</v>
+        <v>177.4807317964056</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549179</v>
+        <v>154.3286843549173</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.164638464457</v>
+        <v>103.1646384644566</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477096</v>
+        <v>50.17862225477077</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225451</v>
+        <v>15.01175934225445</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715914</v>
+        <v>3.257569500715901</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521082</v>
+        <v>0.05317034005521062</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210468</v>
+        <v>0.6775586503210442</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763494</v>
+        <v>6.024112363763471</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238203</v>
+        <v>20.37603650238195</v>
       </c>
       <c r="J7" t="n">
-        <v>47.903396577698</v>
+        <v>47.90339657769783</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911796</v>
+        <v>78.71999591911766</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304582</v>
+        <v>100.7344924304578</v>
       </c>
       <c r="M7" t="n">
-        <v>106.210398249871</v>
+        <v>106.2103982498706</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714017</v>
+        <v>103.6849523714013</v>
       </c>
       <c r="O7" t="n">
-        <v>95.7698354108331</v>
+        <v>95.76983541083273</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428367</v>
+        <v>81.94763894428336</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824694</v>
+        <v>56.73629752824672</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807179</v>
+        <v>30.46550076807167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786769</v>
+        <v>11.80799938786765</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324099018</v>
+        <v>2.895023324099006</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296623</v>
+        <v>0.03695774456296609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,10 +31610,10 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>174.5799468423665</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N9" t="n">
-        <v>224.0066613724356</v>
+        <v>163.7876250036815</v>
       </c>
       <c r="O9" t="n">
         <v>234.1788327264122</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32029,7 +32029,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>711.5843147536863</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,10 +32154,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
         <v>342.6725659692048</v>
@@ -32169,22 +32169,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>382.5296487700709</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>626.873981279922</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750696</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -32977,7 +32977,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>223.8954149958791</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,10 +33102,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
         <v>342.6725659692048</v>
@@ -33117,22 +33117,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H32" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I32" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J32" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K32" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L32" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M32" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N32" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O32" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P32" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q32" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R32" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S32" t="n">
         <v>117.0897208110796</v>
@@ -33451,7 +33451,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H33" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I33" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T33" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J34" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K34" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L34" t="n">
         <v>342.6725659692048</v>
@@ -33591,22 +33591,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O34" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P34" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R34" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S34" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T34" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U34" t="n">
         <v>0.1257206430118155</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I35" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33688,7 +33688,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H36" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750696</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T36" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K37" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L37" t="n">
         <v>342.6725659692048</v>
@@ -33828,22 +33828,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P37" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R37" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I38" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R38" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>215.4343416764904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I41" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
-        <v>810.8671910869762</v>
+        <v>810.8671910869748</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34162,7 +34162,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T42" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,10 +34287,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K43" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L43" t="n">
         <v>342.6725659692048</v>
@@ -34302,22 +34302,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P43" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R43" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I44" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654306</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829633</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34399,7 +34399,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
         <v>342.6725659692048</v>
@@ -34539,22 +34539,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312986024</v>
+        <v>2.601937312985115</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765444</v>
+        <v>24.40417734765347</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196222</v>
+        <v>13.12073617493129</v>
       </c>
       <c r="N6" t="n">
-        <v>13.12073617493168</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196222</v>
+        <v>34.88448735196119</v>
       </c>
       <c r="P6" t="n">
-        <v>20.35427694058762</v>
+        <v>20.35427694058703</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>32.44591292034816</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N9" t="n">
-        <v>92.66494928910228</v>
+        <v>32.44591292034817</v>
       </c>
       <c r="O9" t="n">
         <v>91.58258828196773</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
         <v>107.1851555440239</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>580.242602670353</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714189</v>
+        <v>69.59572666714186</v>
       </c>
       <c r="K16" t="n">
         <v>245.5154777892838</v>
@@ -35814,13 +35814,13 @@
         <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>243.9752689901967</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>484.7399473579036</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193552</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641593</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306251</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193567</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895093</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>86.0539760215201</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895104</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553061</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.507211863733546e-12</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
         <v>381.9794231908712</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.966552622204722e-12</v>
       </c>
       <c r="J32" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L32" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M32" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N32" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O32" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P32" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q32" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
         <v>107.1851555440239</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440239</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306251</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641575</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>81.45993426216013</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414975</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
-        <v>575.1007761169889</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381579</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276938</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
         <v>107.1851555440239</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
